--- a/doc/Burndown Charts/Sprint 2 Burndown.xlsx
+++ b/doc/Burndown Charts/Sprint 2 Burndown.xlsx
@@ -448,21 +448,21 @@
                   <c:v>13.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.5</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10.5</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="114296320"/>
-        <c:axId val="114616960"/>
+        <c:axId val="118397952"/>
+        <c:axId val="195433984"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="114296320"/>
+        <c:axId val="118397952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -538,14 +538,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="114616960"/>
+        <c:crossAx val="195433984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="114616960"/>
+        <c:axId val="195433984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="16"/>
@@ -636,7 +636,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="114296320"/>
+        <c:crossAx val="118397952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2"/>
@@ -710,7 +710,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1562,7 +1562,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1573,7 +1573,7 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1763,7 +1763,9 @@
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
+      <c r="K8" s="8">
+        <v>2</v>
+      </c>
       <c r="L8" s="5"/>
     </row>
     <row r="9" spans="1:12">
@@ -1781,7 +1783,9 @@
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
+      <c r="K9" s="8">
+        <v>1</v>
+      </c>
       <c r="L9" s="5"/>
     </row>
     <row r="10" spans="1:12">
@@ -1891,7 +1895,9 @@
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
+      <c r="K15" s="8">
+        <v>0.25</v>
+      </c>
       <c r="L15" s="5"/>
     </row>
     <row r="16" spans="1:12">
@@ -1909,7 +1915,9 @@
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
+      <c r="K16" s="8">
+        <v>0.25</v>
+      </c>
       <c r="L16" s="5"/>
     </row>
     <row r="17" spans="1:12">
@@ -2021,11 +2029,11 @@
       </c>
       <c r="K20" s="7">
         <f t="shared" si="1"/>
-        <v>10.5</v>
+        <v>7</v>
       </c>
       <c r="L20" s="7">
         <f t="shared" si="1"/>
-        <v>10.5</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/doc/Burndown Charts/Sprint 2 Burndown.xlsx
+++ b/doc/Burndown Charts/Sprint 2 Burndown.xlsx
@@ -451,18 +451,18 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="118397952"/>
-        <c:axId val="195433984"/>
+        <c:axId val="98409472"/>
+        <c:axId val="117184000"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="118397952"/>
+        <c:axId val="98409472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -538,14 +538,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="195433984"/>
+        <c:crossAx val="117184000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="195433984"/>
+        <c:axId val="117184000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="16"/>
@@ -636,7 +636,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="118397952"/>
+        <c:crossAx val="98409472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2"/>
@@ -710,7 +710,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1562,7 +1562,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1573,7 +1573,7 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1708,7 +1708,9 @@
       <c r="I5" s="1"/>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
+      <c r="L5" s="8">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="2" t="s">
@@ -1746,7 +1748,9 @@
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
+      <c r="L7" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="2" t="s">
@@ -1804,7 +1808,9 @@
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
+      <c r="L10" s="8">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="2" t="s">
@@ -1878,7 +1884,9 @@
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
+      <c r="L14" s="8">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="2" t="s">
@@ -1936,7 +1944,9 @@
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
+      <c r="L17" s="8">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="19" spans="1:12" ht="30">
       <c r="A19" s="6" t="s">
@@ -2032,8 +2042,8 @@
         <v>7</v>
       </c>
       <c r="L20" s="7">
-        <f t="shared" si="1"/>
-        <v>7</v>
+        <f>K20-SUM(L3:L17)-4</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/doc/Burndown Charts/Sprint 2 Burndown.xlsx
+++ b/doc/Burndown Charts/Sprint 2 Burndown.xlsx
@@ -458,11 +458,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="98409472"/>
-        <c:axId val="117184000"/>
+        <c:axId val="119249920"/>
+        <c:axId val="167912960"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="98409472"/>
+        <c:axId val="119249920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -538,14 +538,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="117184000"/>
+        <c:crossAx val="167912960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="117184000"/>
+        <c:axId val="167912960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="16"/>
@@ -636,7 +636,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="98409472"/>
+        <c:crossAx val="119249920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2"/>
@@ -710,7 +710,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1562,7 +1562,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1573,7 +1573,7 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2010,7 +2010,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="7">
-        <f t="shared" ref="D20:L20" si="1">C20-SUM(D3:D17)</f>
+        <f t="shared" ref="D20:K20" si="1">C20-SUM(D3:D17)</f>
         <v>15</v>
       </c>
       <c r="E20" s="7">
@@ -2042,7 +2042,7 @@
         <v>7</v>
       </c>
       <c r="L20" s="7">
-        <f>K20-SUM(L3:L17)-4</f>
+        <f>K20-SUM(L3:L17)-(SUM(B3:B17)-SUM(C3:L17))</f>
         <v>0</v>
       </c>
     </row>
